--- a/docs/LIDAR/Cross Correlation Expt.xlsx
+++ b/docs/LIDAR/Cross Correlation Expt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnp\Dropbox\Programming\c++\LIDAR\docs\LIDAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE96337-8689-419B-8984-07F71A1CFA70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8AF3BB-23AA-49B0-AE7F-429DA07095AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F370CBE7-F486-402C-A8BF-596F2EE11CED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{F370CBE7-F486-402C-A8BF-596F2EE11CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,14 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2440,733 +2433,733 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="243"/>
                 <c:pt idx="0">
-                  <c:v>35.600942725445229</c:v>
+                  <c:v>25.085094711680899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5377836144440673</c:v>
+                  <c:v>9.5554970430614556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.711072253109563</c:v>
+                  <c:v>17.199894677510617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.280744277004672</c:v>
+                  <c:v>21.087696288558774</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.677629550654697</c:v>
+                  <c:v>12.793763613933196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.852712896188258</c:v>
+                  <c:v>-8.8572209634922121</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.705425792376616</c:v>
+                  <c:v>-20.869967789998036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.756756756756801</c:v>
+                  <c:v>-46.423142162745634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5377456883861886</c:v>
+                  <c:v>-56.710747705131695</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.9254336106444114</c:v>
+                  <c:v>-37.15050117097492</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-13.289109883701897</c:v>
+                  <c:v>-35.216338381018488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-24.982656952473921</c:v>
+                  <c:v>-41.768215289114949</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-61.62388714943566</c:v>
+                  <c:v>-44.545001217716774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-27.630250193048283</c:v>
+                  <c:v>-37.459084664106236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-15.292593755165415</c:v>
+                  <c:v>-23.160277792655044</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-41.905939279773044</c:v>
+                  <c:v>-11.251721803299345</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-32.311042249532548</c:v>
+                  <c:v>16.988002048687289</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-26.520447668934988</c:v>
+                  <c:v>8.4541522563321667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-41.337595048678054</c:v>
+                  <c:v>23.360405561091945</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-28.745017580549693</c:v>
+                  <c:v>44.194389527726969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.806451612903235</c:v>
+                  <c:v>51.078224567406437</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.665046633795324</c:v>
+                  <c:v>34.916192603766383</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37.704918032786878</c:v>
+                  <c:v>28.699992765705211</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62.949808382644299</c:v>
+                  <c:v>24.62972465189878</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48.666426339228778</c:v>
+                  <c:v>22.037768074275295</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.4545454545454728</c:v>
+                  <c:v>8.7461120161474568</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30.442954117128224</c:v>
+                  <c:v>29.762842129970441</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>25.628820907837436</c:v>
+                  <c:v>-3.1120264974278404</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21.770654122568679</c:v>
+                  <c:v>-34.752402342845798</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-3.653920476209374</c:v>
+                  <c:v>-45.705566005750953</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>19.602269458568429</c:v>
+                  <c:v>-25.09088578403879</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-7.0977344098767743</c:v>
+                  <c:v>-21.889647878295001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-26.595577464074665</c:v>
+                  <c:v>-20.057867915285325</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-47.872039435334379</c:v>
+                  <c:v>-18.750000000000007</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-5.3191154928149489</c:v>
+                  <c:v>-18.864981366764329</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-12.411269483234829</c:v>
+                  <c:v>-38.759370552933291</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-13.652203302101155</c:v>
+                  <c:v>-20.034657780668571</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-6.5079137345596614</c:v>
+                  <c:v>-15.582511607186664</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-9.7128586235726093</c:v>
+                  <c:v>-9.6589057683259032</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-68.167735393651469</c:v>
+                  <c:v>-5.1812776015083983</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-26.332674420201645</c:v>
+                  <c:v>-4.9117667241260152</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.6829290579085052</c:v>
+                  <c:v>-21.341901352716768</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.3829795864120009</c:v>
+                  <c:v>-33.344296442767501</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.838814775327393</c:v>
+                  <c:v>-29.730058149296788</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.175395145262549</c:v>
+                  <c:v>4.6688719325567076</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-14.656672959897774</c:v>
+                  <c:v>-10.102161782128334</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-34.92741070525036</c:v>
+                  <c:v>-3.2065852497296632</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-26.709196421662067</c:v>
+                  <c:v>-13.529194317639032</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-21.70254338220569</c:v>
+                  <c:v>-20.743495341125563</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-38.393632927972874</c:v>
+                  <c:v>-5.0027522708316914</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.7727395990334562</c:v>
+                  <c:v>5.3212571401175079</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>10.862508931871313</c:v>
+                  <c:v>6.4475141565626837</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18.068792365773515</c:v>
+                  <c:v>4.2983427710417894</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15.677236033392386</c:v>
+                  <c:v>-26.432744018203593</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.035678391665641</c:v>
+                  <c:v>0.98681541069556167</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-11.035678391665641</c:v>
+                  <c:v>23.003136188215564</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-7.3571189277771065</c:v>
+                  <c:v>36.476060454166735</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-23.883691787722888</c:v>
+                  <c:v>41.043579048463542</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-14.222362690695537</c:v>
+                  <c:v>45.788656652680629</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-5.0357974669844188</c:v>
+                  <c:v>54.018798394630331</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>18.381905311829016</c:v>
+                  <c:v>63.43130148500623</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.4406971898660306</c:v>
+                  <c:v>71.847219322698066</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>18.569533817705182</c:v>
+                  <c:v>81.211423410167242</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>34.708873250984986</c:v>
+                  <c:v>89.116329859791009</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>48.197101379183515</c:v>
+                  <c:v>96.127057166635211</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>56.259140319228109</c:v>
+                  <c:v>96.725502533932101</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>70.040561104590765</c:v>
+                  <c:v>91.428418855947498</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>82.291273937821359</c:v>
+                  <c:v>82.620455098740408</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>93.659700895992088</c:v>
+                  <c:v>73.069035912880139</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>94.510844488865118</c:v>
+                  <c:v>65.146403096756927</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>86.217758363966297</c:v>
+                  <c:v>58.358422736871937</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>72.942096938337713</c:v>
+                  <c:v>49.360307705045955</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>58.361707039227461</c:v>
+                  <c:v>43.03376916607241</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>49.778313110772942</c:v>
+                  <c:v>37.363675763247493</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45.487883357334077</c:v>
+                  <c:v>33.910871438073457</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>40.948845893991631</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-11.009637651263565</c:v>
+                  <c:v>55.955006085107229</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6.4238208686853717</c:v>
+                  <c:v>66.564023547027489</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>10.508541661560917</c:v>
+                  <c:v>56.28925343929383</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.474171473634504</c:v>
+                  <c:v>42.041389100340787</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>51.678710390771428</c:v>
+                  <c:v>57.956581996477638</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>53.258097580006428</c:v>
+                  <c:v>45.766204283788433</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>37.314944235401718</c:v>
+                  <c:v>54.646029647471259</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13.438262813667903</c:v>
+                  <c:v>42.461739464331202</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>38.953648389671741</c:v>
+                  <c:v>41.505714163333337</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>35.107015831609601</c:v>
+                  <c:v>15.322753514806504</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>51.999999999999993</c:v>
+                  <c:v>-8.9984254133169514</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>53.478454320413803</c:v>
+                  <c:v>-15.87632240692801</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>64.729071525018753</c:v>
+                  <c:v>-26.726124191242441</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.2935538512983809</c:v>
+                  <c:v>-41.662161918649105</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-11.122101332503286</c:v>
+                  <c:v>-21.770654122568693</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-50.418417336551649</c:v>
+                  <c:v>-44.474958999666079</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-46.034481362248499</c:v>
+                  <c:v>-33.652862386541791</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-44.519910960267048</c:v>
+                  <c:v>-53.88338627199272</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-10.65761390798715</c:v>
+                  <c:v>-41.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-24.840131369742931</c:v>
+                  <c:v>-9.9937558532781505</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-13.080621605908375</c:v>
+                  <c:v>2.4984389633195376</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-42.239092901753885</c:v>
+                  <c:v>17.461843904143389</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-24.230015350019968</c:v>
+                  <c:v>-15.182178486614298</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-26.065179821010798</c:v>
+                  <c:v>-31.611002167392034</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-16.390750941244651</c:v>
+                  <c:v>-39.343199447307484</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.1767644942193477E-13</c:v>
+                  <c:v>-47.990860508478583</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>52.764485301108564</c:v>
+                  <c:v>-55.747689619368948</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>31.483366180271339</c:v>
+                  <c:v>-64.753286011511108</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>42.379344841320972</c:v>
+                  <c:v>-75.09653926888474</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>32.976990088576635</c:v>
+                  <c:v>-84.920000569435899</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-23.488471505731031</c:v>
+                  <c:v>-94.202136927999518</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-42.961272549275108</c:v>
+                  <c:v>-97.59502992542825</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-59.889135364443071</c:v>
+                  <c:v>-93.505409582244809</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-75.664117398566276</c:v>
+                  <c:v>-85.254923855736763</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-90.934675461670309</c:v>
+                  <c:v>-75.427743274946707</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-96.052868615227496</c:v>
+                  <c:v>-68.114288470667276</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-88.387393482055984</c:v>
+                  <c:v>-61.395196108986617</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-75.341776012363567</c:v>
+                  <c:v>-54.312018730423148</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-59.955704151670233</c:v>
+                  <c:v>-44.454811943684412</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-53.65038348438793</c:v>
+                  <c:v>-36.958779079238013</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-59.797568879364306</c:v>
+                  <c:v>-27.862301357721552</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-61.273450776414386</c:v>
+                  <c:v>-18.305388098954278</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-25.806451612903142</c:v>
+                  <c:v>-17.479847749031162</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-16.129032258064463</c:v>
+                  <c:v>-23.017413505937441</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>14.896778454477205</c:v>
+                  <c:v>1.9181177921614536</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>31.264094565852307</c:v>
+                  <c:v>24.37777541536078</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>19.090088708030283</c:v>
+                  <c:v>28.449121567908058</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-2.0290196015400737</c:v>
+                  <c:v>10.43838722985396</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-2.1491713855209333</c:v>
+                  <c:v>20.036380202872138</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>-18.44432693638014</c:v>
+                  <c:v>9.4474249356652926</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>7.9936076697742857</c:v>
+                  <c:v>28.421236142448837</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-26.673253468463226</c:v>
+                  <c:v>31.180677059819562</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>12.288268422851498</c:v>
+                  <c:v>30.483773555135389</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>20.708094341979525</c:v>
+                  <c:v>10.842980012219662</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>27.025686609219164</c:v>
+                  <c:v>1.7124693631268542</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>20.907169188132453</c:v>
+                  <c:v>17.644567004987831</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>60.841027005203806</c:v>
+                  <c:v>16.504276922035491</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12.285902336679046</c:v>
+                  <c:v>-4.2567453686566417</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-4.4519010584887724</c:v>
+                  <c:v>5.0950017075334966</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8.1923192051904827</c:v>
+                  <c:v>-15.04189197052953</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-20.412414523193103</c:v>
+                  <c:v>-14.148769414553319</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-45.963855977692134</c:v>
+                  <c:v>3.5333262666878666</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.0642570651794663</c:v>
+                  <c:v>2.5622315024376769</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>10.542120853457723</c:v>
+                  <c:v>-11.336969796806438</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.6929709860271331</c:v>
+                  <c:v>-28.148256745027172</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>26.354213716778819</c:v>
+                  <c:v>-19.005105362789923</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>31.62277660168375</c:v>
+                  <c:v>1.7447464086340454</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-13.363062095621242</c:v>
+                  <c:v>-2.7110770462143661</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-36.887547285071989</c:v>
+                  <c:v>10.151731930429033</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-27.344763541555722</c:v>
+                  <c:v>5.3300179088902606</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-31.372790256907884</c:v>
+                  <c:v>-22.962854102283032</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-33.031394744601215</c:v>
+                  <c:v>2.6420696568536557</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.3620818619285936E-14</c:v>
+                  <c:v>19.400417663374071</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>30.327301609769631</c:v>
+                  <c:v>20.315711248628975</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>12.674485010489548</c:v>
+                  <c:v>6.8025315681146896</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>30.887920037456119</c:v>
+                  <c:v>-6.1558701125109234</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>51.724137931034498</c:v>
+                  <c:v>-13.231119466220665</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>9.7384120974179371</c:v>
+                  <c:v>-19.967426688479534</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-26.417779206407605</c:v>
+                  <c:v>-6.6534032544814963</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-10.877909084991339</c:v>
+                  <c:v>4.8154899555220361</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-28.1787981470539</c:v>
+                  <c:v>-22.906726667644872</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-38.962447165913829</c:v>
+                  <c:v>-15.392105805671601</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0</c:v>
+                  <c:v>-22.415387218167059</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>46.852128566581811</c:v>
+                  <c:v>-20.412414523193153</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-3.7959480900056444</c:v>
+                  <c:v>-25.051813527085237</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.7932162090544348</c:v>
+                  <c:v>-2.2496063533292383</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-9.5712406644257868</c:v>
+                  <c:v>3.3463724070512733</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-37.424059428256001</c:v>
+                  <c:v>-3.4328897775337266</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-56.862745098039191</c:v>
+                  <c:v>5.9201661079829186</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>12.156613477096609</c:v>
+                  <c:v>8.5820151781654666</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-4.3638852060763011E-14</c:v>
+                  <c:v>-3.4115147209215246</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-4.2874646285627493</c:v>
+                  <c:v>11.729852221214703</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>19.097135526615702</c:v>
+                  <c:v>25.57448052364024</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>29.21743548953885</c:v>
+                  <c:v>27.606198265256506</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-16.549804569915764</c:v>
+                  <c:v>15.671752826395949</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4.5596075258755144</c:v>
+                  <c:v>10.76244005001263</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>25.176173391774576</c:v>
+                  <c:v>4.7960113771116832</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>11.443715178079309</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>14.087615673006701</c:v>
+                  <c:v>12.598815766974244</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>22.450662753346879</c:v>
+                  <c:v>11.567970501198701</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>6.7608047940072735</c:v>
+                  <c:v>-6.1080164127019287</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-12.392885771580456</c:v>
+                  <c:v>-9.5481983205257706</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>15.128285307578674</c:v>
+                  <c:v>-1.2076273083657674</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-6.4835508461051727</c:v>
+                  <c:v>-8.3374700093554583</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-8.8130529847846457</c:v>
+                  <c:v>-1.1327854494009175</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-11.290968804428624</c:v>
+                  <c:v>9.7590007294853347</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>8.6386842558136578</c:v>
+                  <c:v>1.0489189904469218</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-4.6676002800932963</c:v>
+                  <c:v>10.768262306348703</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-13.897231638362284</c:v>
+                  <c:v>13.807148070671934</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>4.2485928866209486</c:v>
+                  <c:v>34.752248178580849</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>4.5146681271846939E-14</c:v>
+                  <c:v>25.303844982935082</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-4.6574643283262063</c:v>
+                  <c:v>19.611613513818405</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-10.405382223242936</c:v>
+                  <c:v>24.237397052490316</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>34.488074935770591</c:v>
+                  <c:v>4.0136697553929883</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-3.8559790239603426E-14</c:v>
+                  <c:v>-2.8952080535072158</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>25.136526955072757</c:v>
+                  <c:v>9.6511429560272877</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>43.333333333333329</c:v>
+                  <c:v>-10.844414313367995</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>37.314944235401697</c:v>
+                  <c:v>-14.787837700047266</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.8895492079220557</c:v>
+                  <c:v>-30.312116870138141</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>25.047969343757959</c:v>
+                  <c:v>-17.378634286638352</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-15.808948836459457</c:v>
+                  <c:v>-11.432930232537206</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-59.669418971861653</c:v>
+                  <c:v>-2.1402925123634753</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-49.724515809884679</c:v>
+                  <c:v>11.147567228295898</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-42.137699233237399</c:v>
+                  <c:v>-3.942848613438755</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-37.293707031410044</c:v>
+                  <c:v>-7.0249831140755532</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>5.7093681950393913</c:v>
+                  <c:v>-1.017182947396325</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>55.685881794155577</c:v>
+                  <c:v>-13.379329623712833</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>46.674590495064862</c:v>
+                  <c:v>-11.584082726193619</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>40.497097123354095</c:v>
+                  <c:v>-35.040319564594938</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>45.675013919556982</c:v>
+                  <c:v>-39.769011749330055</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-5.7093681950393886</c:v>
+                  <c:v>-53.691053361686059</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-36.986336072765511</c:v>
+                  <c:v>-49.794729611604772</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-46.153846153846168</c:v>
+                  <c:v>-18.01085964675066</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-44.142713566662636</c:v>
+                  <c:v>-28.734788556634545</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-67.651009149173845</c:v>
+                  <c:v>-20.211622280983544</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-32.84146643259718</c:v>
+                  <c:v>-4.3622810223968234</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-17.089648175616546</c:v>
+                  <c:v>3.1053504702226844</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-29.554023164452392</c:v>
+                  <c:v>35.670236965416784</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-16.888013236829881</c:v>
+                  <c:v>30.638167667268601</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>16.549804569915796</c:v>
+                  <c:v>42.180036234912968</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>11.66864762376624</c:v>
+                  <c:v>40.544242703969161</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>31.081825277836845</c:v>
+                  <c:v>23.739778522633266</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>55.588926553449539</c:v>
+                  <c:v>34.408355835998627</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>35.741364128701612</c:v>
+                  <c:v>31.446782043766795</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>46.318355658658554</c:v>
+                  <c:v>44.908348628471224</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>22.411673409695034</c:v>
+                  <c:v>28.213824634343933</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-4.4676705160877361</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-4.6343100293342034E-14</c:v>
+                  <c:v>19.048291621163074</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>19.148936170212703</c:v>
+                  <c:v>2.183739273601395</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1.9729584892913352</c:v>
+                  <c:v>6.6815310478106111</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>8.5202864568460281</c:v>
+                  <c:v>-3.2645697214096439</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>36.335073295554601</c:v>
+                  <c:v>-9.0916238622861041</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>27.339657596389809</c:v>
+                  <c:v>-14.166642375462574</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>24.573659359149556</c:v>
+                  <c:v>-34.966546809488136</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-18.291322825490756</c:v>
+                  <c:v>-24.136393069741612</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-5.6888012398857244</c:v>
+                  <c:v>11.347042117083509</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-34.926773656784945</c:v>
+                  <c:v>-23.054812334591396</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-39.497625276668167</c:v>
+                  <c:v>9.2161125645559192</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>31.176509137986631</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>50.597875209151169</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>65.016811416079562</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>81.968975872957387</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>99.962925639952502</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>81.618186181209438</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>65.451394212217849</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>49.995369263428877</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>33.333333333333336</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3938,7 +3931,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35.600942725445229</c:v>
+                  <c:v>25.085094711680899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15469,6 +15462,583 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4428258967629047E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.8699050743657043"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$1:$C$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.62000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.45800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.31220000000000014</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.18098000000000011</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.2882000000000104E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-4.3406199999999909E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.13906557999999991</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.22515902199999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.30264311979999992</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.37237880781999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.435140927038</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.49162683433420007</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.54246415090078004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.58821773581070202</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.62939596222963179</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.66645636600666858</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.69981072940600175</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.72982965646540154</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.75684669081886136</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.78116202173697524</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.8030458195632777</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.82274123760694995</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.84046711384625494</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.85642040246162943</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.87077836221546645</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.88370052599391979</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.89533047339452776</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.90579742605507496</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.91521768344956744</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.92369591510461069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.93132632359414957</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.93819369123473462</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.94437432211126116</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.94993688990013503</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.95494320091012153</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.9594488808191094</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.96350399273719844</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.96715359346347862</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.9704382341171307</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.97339441070541766</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.97605496963487592</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.97844947267138838</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.98060452540424958</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.98254407286382461</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.98428966557744213</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.98586069901969786</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.98727462911772812</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.98854716620595529</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.98969244958535973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48CB-44C3-A877-D412C8AFF25B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="123977984"/>
+        <c:axId val="123974656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="123977984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123974656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="123974656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="123977984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15750,6 +16320,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -19917,6 +20527,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -20038,16 +21164,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20224,6 +21350,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C453F9-3502-4837-96FA-78EF844D0596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20531,8 +21698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5804F9-53D9-47EA-A1F2-180EFBF96D16}">
   <dimension ref="A1:I255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20562,8 +21729,8 @@
         <v>0.97422680412371132</v>
       </c>
       <c r="D2">
-        <f>CORREL(C2:C11,$I$2:$I$11)*100</f>
-        <v>35.600942725445229</v>
+        <f>CORREL(B2:B19,$I$2:$I$19)*100</f>
+        <v>25.085094711680899</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -20581,8 +21748,8 @@
         <v>0.90206185567010311</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">CORREL(C3:C12,$I$2:$I$11)*100</f>
-        <v>7.5377836144440673</v>
+        <f t="shared" ref="D3:D66" si="0">CORREL(B3:B20,$I$2:$I$19)*100</f>
+        <v>9.5554970430614556</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -20601,7 +21768,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>38.711072253109563</v>
+        <v>17.199894677510617</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -20620,7 +21787,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>44.280744277004672</v>
+        <v>21.087696288558774</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -20639,7 +21806,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>25.677629550654697</v>
+        <v>12.793763613933196</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -20657,11 +21824,11 @@
         <v>0.90721649484536082</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>13.852712896188258</v>
+        <f>CORREL(B7:B24,$I$2:$I$19)*100</f>
+        <v>-8.8572209634922121</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -20677,10 +21844,10 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>27.705425792376616</v>
+        <v>-20.869967789998036</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -20696,10 +21863,10 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>56.756756756756801</v>
+        <v>-46.423142162745634</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -20715,10 +21882,10 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>3.5377456883861886</v>
+        <v>-56.710747705131695</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -20734,10 +21901,10 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-6.9254336106444114</v>
+        <v>-37.15050117097492</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -20753,10 +21920,10 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-13.289109883701897</v>
+        <v>-35.216338381018488</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -20772,7 +21939,10 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-24.982656952473921</v>
+        <v>-41.768215289114949</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -20788,7 +21958,10 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>-61.62388714943566</v>
+        <v>-44.545001217716774</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -20804,7 +21977,10 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-27.630250193048283</v>
+        <v>-37.459084664106236</v>
+      </c>
+      <c r="I15">
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -20820,10 +21996,13 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>-15.292593755165415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-23.160277792655044</v>
+      </c>
+      <c r="I16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -20836,10 +22015,13 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>-41.905939279773044</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-11.251721803299345</v>
+      </c>
+      <c r="I17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -20852,10 +22034,13 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>-32.311042249532548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16.988002048687289</v>
+      </c>
+      <c r="I18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -20868,10 +22053,13 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>-26.520447668934988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.4541522563321667</v>
+      </c>
+      <c r="I19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -20884,10 +22072,10 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>-41.337595048678054</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>23.360405561091945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -20900,10 +22088,10 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>-28.745017580549693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44.194389527726969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -20916,10 +22104,10 @@
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>25.806451612903235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51.078224567406437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -20932,10 +22120,10 @@
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>11.665046633795324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34.916192603766383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -20948,10 +22136,10 @@
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>37.704918032786878</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28.699992765705211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -20964,10 +22152,10 @@
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>62.949808382644299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24.62972465189878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -20980,10 +22168,10 @@
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>48.666426339228778</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22.037768074275295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -20996,10 +22184,10 @@
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>5.4545454545454728</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.7461120161474568</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -21012,10 +22200,10 @@
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>30.442954117128224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29.762842129970441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -21028,10 +22216,10 @@
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>25.628820907837436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.1120264974278404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -21044,10 +22232,10 @@
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>21.770654122568679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-34.752402342845798</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -21060,10 +22248,10 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>-3.653920476209374</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-45.705566005750953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -21076,7 +22264,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>19.602269458568429</v>
+        <v>-25.09088578403879</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -21092,7 +22280,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>-7.0977344098767743</v>
+        <v>-21.889647878295001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -21108,7 +22296,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>-26.595577464074665</v>
+        <v>-20.057867915285325</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -21124,7 +22312,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>-47.872039435334379</v>
+        <v>-18.750000000000007</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -21140,7 +22328,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>-5.3191154928149489</v>
+        <v>-18.864981366764329</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -21156,7 +22344,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>-12.411269483234829</v>
+        <v>-38.759370552933291</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -21172,7 +22360,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>-13.652203302101155</v>
+        <v>-20.034657780668571</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -21188,7 +22376,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>-6.5079137345596614</v>
+        <v>-15.582511607186664</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -21204,7 +22392,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>-9.7128586235726093</v>
+        <v>-9.6589057683259032</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -21220,7 +22408,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>-68.167735393651469</v>
+        <v>-5.1812776015083983</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -21236,7 +22424,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>-26.332674420201645</v>
+        <v>-4.9117667241260152</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -21252,7 +22440,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>4.6829290579085052</v>
+        <v>-21.341901352716768</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -21268,7 +22456,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>2.3829795864120009</v>
+        <v>-33.344296442767501</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -21284,7 +22472,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>12.838814775327393</v>
+        <v>-29.730058149296788</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -21300,7 +22488,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>45.175395145262549</v>
+        <v>4.6688719325567076</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -21316,7 +22504,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>-14.656672959897774</v>
+        <v>-10.102161782128334</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -21332,7 +22520,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>-34.92741070525036</v>
+        <v>-3.2065852497296632</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -21348,7 +22536,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>-26.709196421662067</v>
+        <v>-13.529194317639032</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -21364,7 +22552,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>-21.70254338220569</v>
+        <v>-20.743495341125563</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -21380,7 +22568,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>-38.393632927972874</v>
+        <v>-5.0027522708316914</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -21396,7 +22584,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>4.7727395990334562</v>
+        <v>5.3212571401175079</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -21412,7 +22600,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>10.862508931871313</v>
+        <v>6.4475141565626837</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -21428,7 +22616,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>18.068792365773515</v>
+        <v>4.2983427710417894</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -21444,7 +22632,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>15.677236033392386</v>
+        <v>-26.432744018203593</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -21460,7 +22648,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>11.035678391665641</v>
+        <v>0.98681541069556167</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -21476,7 +22664,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>-11.035678391665641</v>
+        <v>23.003136188215564</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -21492,7 +22680,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>-7.3571189277771065</v>
+        <v>36.476060454166735</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -21508,7 +22696,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>-23.883691787722888</v>
+        <v>41.043579048463542</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -21524,7 +22712,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>-14.222362690695537</v>
+        <v>45.788656652680629</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -21540,7 +22728,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>-5.0357974669844188</v>
+        <v>54.018798394630331</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -21556,7 +22744,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>18.381905311829016</v>
+        <v>63.43130148500623</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -21572,7 +22760,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>8.4406971898660306</v>
+        <v>71.847219322698066</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -21588,7 +22776,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>18.569533817705182</v>
+        <v>81.211423410167242</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -21604,7 +22792,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>34.708873250984986</v>
+        <v>89.116329859791009</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -21620,7 +22808,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>48.197101379183515</v>
+        <v>96.127057166635211</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -21635,8 +22823,8 @@
         <v>0.93814432989690721</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="1">CORREL(C67:C76,$I$2:$I$11)*100</f>
-        <v>56.259140319228109</v>
+        <f t="shared" ref="D67:D130" si="1">CORREL(B67:B84,$I$2:$I$19)*100</f>
+        <v>96.725502533932101</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -21652,7 +22840,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="1"/>
-        <v>70.040561104590765</v>
+        <v>91.428418855947498</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -21668,7 +22856,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="1"/>
-        <v>82.291273937821359</v>
+        <v>82.620455098740408</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -21684,7 +22872,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="1"/>
-        <v>93.659700895992088</v>
+        <v>73.069035912880139</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -21700,7 +22888,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="1"/>
-        <v>94.510844488865118</v>
+        <v>65.146403096756927</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -21716,7 +22904,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="1"/>
-        <v>86.217758363966297</v>
+        <v>58.358422736871937</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -21732,7 +22920,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="1"/>
-        <v>72.942096938337713</v>
+        <v>49.360307705045955</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -21748,7 +22936,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="1"/>
-        <v>58.361707039227461</v>
+        <v>43.03376916607241</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -21764,7 +22952,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="1"/>
-        <v>49.778313110772942</v>
+        <v>37.363675763247493</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -21780,7 +22968,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="1"/>
-        <v>45.487883357334077</v>
+        <v>33.910871438073457</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -21796,7 +22984,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40.948845893991631</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -21812,7 +23000,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="1"/>
-        <v>-11.009637651263565</v>
+        <v>55.955006085107229</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -21828,7 +23016,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="1"/>
-        <v>6.4238208686853717</v>
+        <v>66.564023547027489</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -21844,7 +23032,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="1"/>
-        <v>10.508541661560917</v>
+        <v>56.28925343929383</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -21860,7 +23048,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="1"/>
-        <v>12.474171473634504</v>
+        <v>42.041389100340787</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -21876,7 +23064,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="1"/>
-        <v>51.678710390771428</v>
+        <v>57.956581996477638</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -21892,7 +23080,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="1"/>
-        <v>53.258097580006428</v>
+        <v>45.766204283788433</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -21908,7 +23096,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="1"/>
-        <v>37.314944235401718</v>
+        <v>54.646029647471259</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -21924,7 +23112,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="1"/>
-        <v>13.438262813667903</v>
+        <v>42.461739464331202</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -21940,7 +23128,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="1"/>
-        <v>38.953648389671741</v>
+        <v>41.505714163333337</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -21956,7 +23144,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="1"/>
-        <v>35.107015831609601</v>
+        <v>15.322753514806504</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -21972,7 +23160,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="1"/>
-        <v>51.999999999999993</v>
+        <v>-8.9984254133169514</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -21988,7 +23176,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="1"/>
-        <v>53.478454320413803</v>
+        <v>-15.87632240692801</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -22004,7 +23192,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="1"/>
-        <v>64.729071525018753</v>
+        <v>-26.726124191242441</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -22020,7 +23208,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="1"/>
-        <v>2.2935538512983809</v>
+        <v>-41.662161918649105</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -22036,7 +23224,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="1"/>
-        <v>-11.122101332503286</v>
+        <v>-21.770654122568693</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -22052,7 +23240,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="1"/>
-        <v>-50.418417336551649</v>
+        <v>-44.474958999666079</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -22068,7 +23256,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="1"/>
-        <v>-46.034481362248499</v>
+        <v>-33.652862386541791</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -22084,7 +23272,7 @@
       </c>
       <c r="D95">
         <f t="shared" si="1"/>
-        <v>-44.519910960267048</v>
+        <v>-53.88338627199272</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -22100,7 +23288,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="1"/>
-        <v>-10.65761390798715</v>
+        <v>-41.333333333333336</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -22116,7 +23304,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="1"/>
-        <v>-24.840131369742931</v>
+        <v>-9.9937558532781505</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -22132,7 +23320,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="1"/>
-        <v>-13.080621605908375</v>
+        <v>2.4984389633195376</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -22148,7 +23336,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="1"/>
-        <v>-42.239092901753885</v>
+        <v>17.461843904143389</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -22164,7 +23352,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="1"/>
-        <v>-24.230015350019968</v>
+        <v>-15.182178486614298</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -22180,7 +23368,7 @@
       </c>
       <c r="D101">
         <f t="shared" si="1"/>
-        <v>-26.065179821010798</v>
+        <v>-31.611002167392034</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -22196,7 +23384,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="1"/>
-        <v>-16.390750941244651</v>
+        <v>-39.343199447307484</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -22212,7 +23400,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="1"/>
-        <v>-1.1767644942193477E-13</v>
+        <v>-47.990860508478583</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -22228,7 +23416,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="1"/>
-        <v>52.764485301108564</v>
+        <v>-55.747689619368948</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -22244,7 +23432,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="1"/>
-        <v>31.483366180271339</v>
+        <v>-64.753286011511108</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -22260,7 +23448,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="1"/>
-        <v>42.379344841320972</v>
+        <v>-75.09653926888474</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -22276,7 +23464,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="1"/>
-        <v>32.976990088576635</v>
+        <v>-84.920000569435899</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -22292,7 +23480,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="1"/>
-        <v>-23.488471505731031</v>
+        <v>-94.202136927999518</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -22308,7 +23496,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="1"/>
-        <v>-42.961272549275108</v>
+        <v>-97.59502992542825</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -22324,7 +23512,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="1"/>
-        <v>-59.889135364443071</v>
+        <v>-93.505409582244809</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -22340,7 +23528,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="1"/>
-        <v>-75.664117398566276</v>
+        <v>-85.254923855736763</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -22356,7 +23544,7 @@
       </c>
       <c r="D112">
         <f t="shared" si="1"/>
-        <v>-90.934675461670309</v>
+        <v>-75.427743274946707</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -22372,7 +23560,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="1"/>
-        <v>-96.052868615227496</v>
+        <v>-68.114288470667276</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -22388,7 +23576,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="1"/>
-        <v>-88.387393482055984</v>
+        <v>-61.395196108986617</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -22404,7 +23592,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="1"/>
-        <v>-75.341776012363567</v>
+        <v>-54.312018730423148</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -22420,7 +23608,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="1"/>
-        <v>-59.955704151670233</v>
+        <v>-44.454811943684412</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -22436,7 +23624,7 @@
       </c>
       <c r="D117">
         <f t="shared" si="1"/>
-        <v>-53.65038348438793</v>
+        <v>-36.958779079238013</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -22452,7 +23640,7 @@
       </c>
       <c r="D118">
         <f t="shared" si="1"/>
-        <v>-59.797568879364306</v>
+        <v>-27.862301357721552</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -22468,7 +23656,7 @@
       </c>
       <c r="D119">
         <f t="shared" si="1"/>
-        <v>-61.273450776414386</v>
+        <v>-18.305388098954278</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -22484,7 +23672,7 @@
       </c>
       <c r="D120">
         <f t="shared" si="1"/>
-        <v>-25.806451612903142</v>
+        <v>-17.479847749031162</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -22500,7 +23688,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="1"/>
-        <v>-16.129032258064463</v>
+        <v>-23.017413505937441</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -22516,7 +23704,7 @@
       </c>
       <c r="D122">
         <f t="shared" si="1"/>
-        <v>14.896778454477205</v>
+        <v>1.9181177921614536</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -22532,7 +23720,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="1"/>
-        <v>31.264094565852307</v>
+        <v>24.37777541536078</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -22548,7 +23736,7 @@
       </c>
       <c r="D124">
         <f t="shared" si="1"/>
-        <v>19.090088708030283</v>
+        <v>28.449121567908058</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -22564,7 +23752,7 @@
       </c>
       <c r="D125">
         <f t="shared" si="1"/>
-        <v>-2.0290196015400737</v>
+        <v>10.43838722985396</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -22580,7 +23768,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="1"/>
-        <v>-2.1491713855209333</v>
+        <v>20.036380202872138</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -22596,7 +23784,7 @@
       </c>
       <c r="D127">
         <f t="shared" si="1"/>
-        <v>-18.44432693638014</v>
+        <v>9.4474249356652926</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -22612,7 +23800,7 @@
       </c>
       <c r="D128">
         <f t="shared" si="1"/>
-        <v>7.9936076697742857</v>
+        <v>28.421236142448837</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -22628,7 +23816,7 @@
       </c>
       <c r="D129">
         <f t="shared" si="1"/>
-        <v>-26.673253468463226</v>
+        <v>31.180677059819562</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -22644,7 +23832,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="1"/>
-        <v>12.288268422851498</v>
+        <v>30.483773555135389</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -22659,8 +23847,8 @@
         <v>0.95876288659793818</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="2">CORREL(C131:C140,$I$2:$I$11)*100</f>
-        <v>20.708094341979525</v>
+        <f t="shared" ref="D131:D194" si="2">CORREL(B131:B148,$I$2:$I$19)*100</f>
+        <v>10.842980012219662</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -22676,7 +23864,7 @@
       </c>
       <c r="D132">
         <f t="shared" si="2"/>
-        <v>27.025686609219164</v>
+        <v>1.7124693631268542</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -22692,7 +23880,7 @@
       </c>
       <c r="D133">
         <f t="shared" si="2"/>
-        <v>20.907169188132453</v>
+        <v>17.644567004987831</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -22708,7 +23896,7 @@
       </c>
       <c r="D134">
         <f t="shared" si="2"/>
-        <v>60.841027005203806</v>
+        <v>16.504276922035491</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -22724,7 +23912,7 @@
       </c>
       <c r="D135">
         <f t="shared" si="2"/>
-        <v>12.285902336679046</v>
+        <v>-4.2567453686566417</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -22740,7 +23928,7 @@
       </c>
       <c r="D136">
         <f t="shared" si="2"/>
-        <v>-4.4519010584887724</v>
+        <v>5.0950017075334966</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -22756,7 +23944,7 @@
       </c>
       <c r="D137">
         <f t="shared" si="2"/>
-        <v>8.1923192051904827</v>
+        <v>-15.04189197052953</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -22772,7 +23960,7 @@
       </c>
       <c r="D138">
         <f t="shared" si="2"/>
-        <v>-20.412414523193103</v>
+        <v>-14.148769414553319</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -22788,7 +23976,7 @@
       </c>
       <c r="D139">
         <f t="shared" si="2"/>
-        <v>-45.963855977692134</v>
+        <v>3.5333262666878666</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -22804,7 +23992,7 @@
       </c>
       <c r="D140">
         <f t="shared" si="2"/>
-        <v>3.0642570651794663</v>
+        <v>2.5622315024376769</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -22820,7 +24008,7 @@
       </c>
       <c r="D141">
         <f t="shared" si="2"/>
-        <v>10.542120853457723</v>
+        <v>-11.336969796806438</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -22836,7 +24024,7 @@
       </c>
       <c r="D142">
         <f t="shared" si="2"/>
-        <v>1.6929709860271331</v>
+        <v>-28.148256745027172</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -22852,7 +24040,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="2"/>
-        <v>26.354213716778819</v>
+        <v>-19.005105362789923</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -22868,7 +24056,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="2"/>
-        <v>31.62277660168375</v>
+        <v>1.7447464086340454</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -22884,7 +24072,7 @@
       </c>
       <c r="D145">
         <f t="shared" si="2"/>
-        <v>-13.363062095621242</v>
+        <v>-2.7110770462143661</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -22900,7 +24088,7 @@
       </c>
       <c r="D146">
         <f t="shared" si="2"/>
-        <v>-36.887547285071989</v>
+        <v>10.151731930429033</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -22916,7 +24104,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="2"/>
-        <v>-27.344763541555722</v>
+        <v>5.3300179088902606</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -22932,7 +24120,7 @@
       </c>
       <c r="D148">
         <f t="shared" si="2"/>
-        <v>-31.372790256907884</v>
+        <v>-22.962854102283032</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -22948,7 +24136,7 @@
       </c>
       <c r="D149">
         <f t="shared" si="2"/>
-        <v>-33.031394744601215</v>
+        <v>2.6420696568536557</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -22964,7 +24152,7 @@
       </c>
       <c r="D150">
         <f t="shared" si="2"/>
-        <v>3.3620818619285936E-14</v>
+        <v>19.400417663374071</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -22980,7 +24168,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="2"/>
-        <v>30.327301609769631</v>
+        <v>20.315711248628975</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -22996,7 +24184,7 @@
       </c>
       <c r="D152">
         <f t="shared" si="2"/>
-        <v>12.674485010489548</v>
+        <v>6.8025315681146896</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -23012,7 +24200,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="2"/>
-        <v>30.887920037456119</v>
+        <v>-6.1558701125109234</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -23028,7 +24216,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="2"/>
-        <v>51.724137931034498</v>
+        <v>-13.231119466220665</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -23044,7 +24232,7 @@
       </c>
       <c r="D155">
         <f t="shared" si="2"/>
-        <v>9.7384120974179371</v>
+        <v>-19.967426688479534</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -23060,7 +24248,7 @@
       </c>
       <c r="D156">
         <f t="shared" si="2"/>
-        <v>-26.417779206407605</v>
+        <v>-6.6534032544814963</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -23076,7 +24264,7 @@
       </c>
       <c r="D157">
         <f t="shared" si="2"/>
-        <v>-10.877909084991339</v>
+        <v>4.8154899555220361</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -23092,7 +24280,7 @@
       </c>
       <c r="D158">
         <f t="shared" si="2"/>
-        <v>-28.1787981470539</v>
+        <v>-22.906726667644872</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -23108,7 +24296,7 @@
       </c>
       <c r="D159">
         <f t="shared" si="2"/>
-        <v>-38.962447165913829</v>
+        <v>-15.392105805671601</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -23124,7 +24312,7 @@
       </c>
       <c r="D160">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-22.415387218167059</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -23140,7 +24328,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="2"/>
-        <v>46.852128566581811</v>
+        <v>-20.412414523193153</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -23156,7 +24344,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="2"/>
-        <v>-3.7959480900056444</v>
+        <v>-25.051813527085237</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -23172,7 +24360,7 @@
       </c>
       <c r="D163">
         <f t="shared" si="2"/>
-        <v>3.7932162090544348</v>
+        <v>-2.2496063533292383</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -23188,7 +24376,7 @@
       </c>
       <c r="D164">
         <f t="shared" si="2"/>
-        <v>-9.5712406644257868</v>
+        <v>3.3463724070512733</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -23204,7 +24392,7 @@
       </c>
       <c r="D165">
         <f t="shared" si="2"/>
-        <v>-37.424059428256001</v>
+        <v>-3.4328897775337266</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -23220,7 +24408,7 @@
       </c>
       <c r="D166">
         <f t="shared" si="2"/>
-        <v>-56.862745098039191</v>
+        <v>5.9201661079829186</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -23236,7 +24424,7 @@
       </c>
       <c r="D167">
         <f t="shared" si="2"/>
-        <v>12.156613477096609</v>
+        <v>8.5820151781654666</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -23252,7 +24440,7 @@
       </c>
       <c r="D168">
         <f t="shared" si="2"/>
-        <v>-4.3638852060763011E-14</v>
+        <v>-3.4115147209215246</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -23268,7 +24456,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="2"/>
-        <v>-4.2874646285627493</v>
+        <v>11.729852221214703</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -23284,7 +24472,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="2"/>
-        <v>19.097135526615702</v>
+        <v>25.57448052364024</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -23300,7 +24488,7 @@
       </c>
       <c r="D171">
         <f t="shared" si="2"/>
-        <v>29.21743548953885</v>
+        <v>27.606198265256506</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -23316,7 +24504,7 @@
       </c>
       <c r="D172">
         <f t="shared" si="2"/>
-        <v>-16.549804569915764</v>
+        <v>15.671752826395949</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -23332,7 +24520,7 @@
       </c>
       <c r="D173">
         <f t="shared" si="2"/>
-        <v>4.5596075258755144</v>
+        <v>10.76244005001263</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -23348,7 +24536,7 @@
       </c>
       <c r="D174">
         <f t="shared" si="2"/>
-        <v>25.176173391774576</v>
+        <v>4.7960113771116832</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -23364,7 +24552,7 @@
       </c>
       <c r="D175">
         <f t="shared" si="2"/>
-        <v>11.443715178079309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -23380,7 +24568,7 @@
       </c>
       <c r="D176">
         <f t="shared" si="2"/>
-        <v>14.087615673006701</v>
+        <v>12.598815766974244</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -23396,7 +24584,7 @@
       </c>
       <c r="D177">
         <f t="shared" si="2"/>
-        <v>22.450662753346879</v>
+        <v>11.567970501198701</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -23412,7 +24600,7 @@
       </c>
       <c r="D178">
         <f t="shared" si="2"/>
-        <v>6.7608047940072735</v>
+        <v>-6.1080164127019287</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -23428,7 +24616,7 @@
       </c>
       <c r="D179">
         <f t="shared" si="2"/>
-        <v>-12.392885771580456</v>
+        <v>-9.5481983205257706</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -23444,7 +24632,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="2"/>
-        <v>15.128285307578674</v>
+        <v>-1.2076273083657674</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -23460,7 +24648,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="2"/>
-        <v>-6.4835508461051727</v>
+        <v>-8.3374700093554583</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -23476,7 +24664,7 @@
       </c>
       <c r="D182">
         <f t="shared" si="2"/>
-        <v>-8.8130529847846457</v>
+        <v>-1.1327854494009175</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -23492,7 +24680,7 @@
       </c>
       <c r="D183">
         <f t="shared" si="2"/>
-        <v>-11.290968804428624</v>
+        <v>9.7590007294853347</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -23508,7 +24696,7 @@
       </c>
       <c r="D184">
         <f t="shared" si="2"/>
-        <v>8.6386842558136578</v>
+        <v>1.0489189904469218</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -23524,7 +24712,7 @@
       </c>
       <c r="D185">
         <f t="shared" si="2"/>
-        <v>-4.6676002800932963</v>
+        <v>10.768262306348703</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -23540,7 +24728,7 @@
       </c>
       <c r="D186">
         <f t="shared" si="2"/>
-        <v>-13.897231638362284</v>
+        <v>13.807148070671934</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -23556,7 +24744,7 @@
       </c>
       <c r="D187">
         <f t="shared" si="2"/>
-        <v>4.2485928866209486</v>
+        <v>34.752248178580849</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -23572,7 +24760,7 @@
       </c>
       <c r="D188">
         <f t="shared" si="2"/>
-        <v>4.5146681271846939E-14</v>
+        <v>25.303844982935082</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -23588,7 +24776,7 @@
       </c>
       <c r="D189">
         <f t="shared" si="2"/>
-        <v>-4.6574643283262063</v>
+        <v>19.611613513818405</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -23604,7 +24792,7 @@
       </c>
       <c r="D190">
         <f t="shared" si="2"/>
-        <v>-10.405382223242936</v>
+        <v>24.237397052490316</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -23620,7 +24808,7 @@
       </c>
       <c r="D191">
         <f t="shared" si="2"/>
-        <v>34.488074935770591</v>
+        <v>4.0136697553929883</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -23636,7 +24824,7 @@
       </c>
       <c r="D192">
         <f t="shared" si="2"/>
-        <v>-3.8559790239603426E-14</v>
+        <v>-2.8952080535072158</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -23652,7 +24840,7 @@
       </c>
       <c r="D193">
         <f t="shared" si="2"/>
-        <v>25.136526955072757</v>
+        <v>9.6511429560272877</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -23668,7 +24856,7 @@
       </c>
       <c r="D194">
         <f t="shared" si="2"/>
-        <v>43.333333333333329</v>
+        <v>-10.844414313367995</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -23683,8 +24871,8 @@
         <v>0.97938144329896903</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D244" si="3">CORREL(C195:C204,$I$2:$I$11)*100</f>
-        <v>37.314944235401697</v>
+        <f t="shared" ref="D195:D255" si="3">CORREL(B195:B212,$I$2:$I$19)*100</f>
+        <v>-14.787837700047266</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -23700,7 +24888,7 @@
       </c>
       <c r="D196">
         <f t="shared" si="3"/>
-        <v>3.8895492079220557</v>
+        <v>-30.312116870138141</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -23716,7 +24904,7 @@
       </c>
       <c r="D197">
         <f t="shared" si="3"/>
-        <v>25.047969343757959</v>
+        <v>-17.378634286638352</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -23732,7 +24920,7 @@
       </c>
       <c r="D198">
         <f t="shared" si="3"/>
-        <v>-15.808948836459457</v>
+        <v>-11.432930232537206</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -23748,7 +24936,7 @@
       </c>
       <c r="D199">
         <f t="shared" si="3"/>
-        <v>-59.669418971861653</v>
+        <v>-2.1402925123634753</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -23764,7 +24952,7 @@
       </c>
       <c r="D200">
         <f t="shared" si="3"/>
-        <v>-49.724515809884679</v>
+        <v>11.147567228295898</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -23780,7 +24968,7 @@
       </c>
       <c r="D201">
         <f t="shared" si="3"/>
-        <v>-42.137699233237399</v>
+        <v>-3.942848613438755</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -23796,7 +24984,7 @@
       </c>
       <c r="D202">
         <f t="shared" si="3"/>
-        <v>-37.293707031410044</v>
+        <v>-7.0249831140755532</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -23812,7 +25000,7 @@
       </c>
       <c r="D203">
         <f t="shared" si="3"/>
-        <v>5.7093681950393913</v>
+        <v>-1.017182947396325</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -23828,7 +25016,7 @@
       </c>
       <c r="D204">
         <f t="shared" si="3"/>
-        <v>55.685881794155577</v>
+        <v>-13.379329623712833</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -23844,7 +25032,7 @@
       </c>
       <c r="D205">
         <f t="shared" si="3"/>
-        <v>46.674590495064862</v>
+        <v>-11.584082726193619</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -23860,7 +25048,7 @@
       </c>
       <c r="D206">
         <f t="shared" si="3"/>
-        <v>40.497097123354095</v>
+        <v>-35.040319564594938</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -23876,7 +25064,7 @@
       </c>
       <c r="D207">
         <f t="shared" si="3"/>
-        <v>45.675013919556982</v>
+        <v>-39.769011749330055</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -23892,7 +25080,7 @@
       </c>
       <c r="D208">
         <f t="shared" si="3"/>
-        <v>-5.7093681950393886</v>
+        <v>-53.691053361686059</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -23908,7 +25096,7 @@
       </c>
       <c r="D209">
         <f t="shared" si="3"/>
-        <v>-36.986336072765511</v>
+        <v>-49.794729611604772</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -23924,7 +25112,7 @@
       </c>
       <c r="D210">
         <f t="shared" si="3"/>
-        <v>-46.153846153846168</v>
+        <v>-18.01085964675066</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -23940,7 +25128,7 @@
       </c>
       <c r="D211">
         <f t="shared" si="3"/>
-        <v>-44.142713566662636</v>
+        <v>-28.734788556634545</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -23956,7 +25144,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="3"/>
-        <v>-67.651009149173845</v>
+        <v>-20.211622280983544</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -23972,7 +25160,7 @@
       </c>
       <c r="D213">
         <f t="shared" si="3"/>
-        <v>-32.84146643259718</v>
+        <v>-4.3622810223968234</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -23988,7 +25176,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="3"/>
-        <v>-17.089648175616546</v>
+        <v>3.1053504702226844</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -24004,7 +25192,7 @@
       </c>
       <c r="D215">
         <f t="shared" si="3"/>
-        <v>-29.554023164452392</v>
+        <v>35.670236965416784</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -24020,7 +25208,7 @@
       </c>
       <c r="D216">
         <f t="shared" si="3"/>
-        <v>-16.888013236829881</v>
+        <v>30.638167667268601</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -24036,7 +25224,7 @@
       </c>
       <c r="D217">
         <f t="shared" si="3"/>
-        <v>16.549804569915796</v>
+        <v>42.180036234912968</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -24052,7 +25240,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="3"/>
-        <v>11.66864762376624</v>
+        <v>40.544242703969161</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -24068,7 +25256,7 @@
       </c>
       <c r="D219">
         <f t="shared" si="3"/>
-        <v>31.081825277836845</v>
+        <v>23.739778522633266</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -24084,7 +25272,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="3"/>
-        <v>55.588926553449539</v>
+        <v>34.408355835998627</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -24100,7 +25288,7 @@
       </c>
       <c r="D221">
         <f t="shared" si="3"/>
-        <v>35.741364128701612</v>
+        <v>31.446782043766795</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -24116,7 +25304,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="3"/>
-        <v>46.318355658658554</v>
+        <v>44.908348628471224</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -24132,7 +25320,7 @@
       </c>
       <c r="D223">
         <f t="shared" si="3"/>
-        <v>22.411673409695034</v>
+        <v>28.213824634343933</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -24148,7 +25336,7 @@
       </c>
       <c r="D224">
         <f t="shared" si="3"/>
-        <v>-4.4676705160877361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -24164,7 +25352,7 @@
       </c>
       <c r="D225">
         <f t="shared" si="3"/>
-        <v>-4.6343100293342034E-14</v>
+        <v>19.048291621163074</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -24180,7 +25368,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="3"/>
-        <v>19.148936170212703</v>
+        <v>2.183739273601395</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -24196,7 +25384,7 @@
       </c>
       <c r="D227">
         <f t="shared" si="3"/>
-        <v>1.9729584892913352</v>
+        <v>6.6815310478106111</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -24212,7 +25400,7 @@
       </c>
       <c r="D228">
         <f t="shared" si="3"/>
-        <v>8.5202864568460281</v>
+        <v>-3.2645697214096439</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -24228,7 +25416,7 @@
       </c>
       <c r="D229">
         <f t="shared" si="3"/>
-        <v>36.335073295554601</v>
+        <v>-9.0916238622861041</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -24244,7 +25432,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="3"/>
-        <v>27.339657596389809</v>
+        <v>-14.166642375462574</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -24260,7 +25448,7 @@
       </c>
       <c r="D231">
         <f t="shared" si="3"/>
-        <v>24.573659359149556</v>
+        <v>-34.966546809488136</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -24276,7 +25464,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="3"/>
-        <v>-18.291322825490756</v>
+        <v>-24.136393069741612</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -24292,7 +25480,7 @@
       </c>
       <c r="D233">
         <f t="shared" si="3"/>
-        <v>-5.6888012398857244</v>
+        <v>11.347042117083509</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -24308,7 +25496,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="3"/>
-        <v>-34.926773656784945</v>
+        <v>-23.054812334591396</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -24324,7 +25512,7 @@
       </c>
       <c r="D235">
         <f t="shared" si="3"/>
-        <v>-39.497625276668167</v>
+        <v>9.2161125645559192</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -24338,9 +25526,9 @@
         <f>1-(maxval-B236)/(maxval-minval)</f>
         <v>0.90206185567010311</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="e">
         <f t="shared" si="3"/>
-        <v>31.176509137986631</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -24354,9 +25542,9 @@
         <f>1-(maxval-B237)/(maxval-minval)</f>
         <v>0.9329896907216495</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="e">
         <f t="shared" si="3"/>
-        <v>50.597875209151169</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -24370,9 +25558,9 @@
         <f>1-(maxval-B238)/(maxval-minval)</f>
         <v>0.9329896907216495</v>
       </c>
-      <c r="D238">
+      <c r="D238" t="e">
         <f t="shared" si="3"/>
-        <v>65.016811416079562</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -24386,9 +25574,9 @@
         <f>1-(maxval-B239)/(maxval-minval)</f>
         <v>0.92268041237113407</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="e">
         <f t="shared" si="3"/>
-        <v>81.968975872957387</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -24402,9 +25590,9 @@
         <f>1-(maxval-B240)/(maxval-minval)</f>
         <v>0.95360824742268036</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="e">
         <f t="shared" si="3"/>
-        <v>99.962925639952502</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -24418,9 +25606,9 @@
         <f>1-(maxval-B241)/(maxval-minval)</f>
         <v>0.98969072164948457</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="e">
         <f t="shared" si="3"/>
-        <v>81.618186181209438</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -24434,9 +25622,9 @@
         <f>1-(maxval-B242)/(maxval-minval)</f>
         <v>0.90721649484536082</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="e">
         <f t="shared" si="3"/>
-        <v>65.451394212217849</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -24450,9 +25638,9 @@
         <f>1-(maxval-B243)/(maxval-minval)</f>
         <v>0.96907216494845361</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="e">
         <f t="shared" si="3"/>
-        <v>49.995369263428877</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -24466,9 +25654,9 @@
         <f>1-(maxval-B244)/(maxval-minval)</f>
         <v>0.9329896907216495</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="e">
         <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -24476,65 +25664,109 @@
         <f>1-(maxval-B245)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D245" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C246">
         <f>1-(maxval-B246)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D246" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C247">
         <f>1-(maxval-B247)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D247" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C248">
         <f>1-(maxval-B248)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D248" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C249">
         <f>1-(maxval-B249)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D249" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C250">
         <f>1-(maxval-B250)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D250" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C251">
         <f>1-(maxval-B251)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D251" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C252">
         <f>1-(maxval-B252)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D252" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C253">
         <f>1-(maxval-B253)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D253" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C254">
         <f>1-(maxval-B254)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
       </c>
+      <c r="D254" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C255">
         <f>1-(maxval-B255)/(maxval-minval)</f>
         <v>-0.53092783505154628</v>
+      </c>
+      <c r="D255" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -30692,184 +31924,917 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213CF62E-8593-4F20-BADC-FA7E702FE192}">
-  <dimension ref="C3:D28"/>
+  <dimension ref="B1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <f>B1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>0.9*C1+0.1*B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">0.9*C2+0.1*B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
       <c r="C4">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D4">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.62000000000000011</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.45800000000000018</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.31220000000000014</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0.18098000000000011</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56">
         <v>-1</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C11">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>6.2882000000000104E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57">
         <v>-1</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C12">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>-4.3406199999999909E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58">
         <v>-1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C13">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>-0.13906557999999991</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59">
         <v>-1</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C14">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>-0.22515902199999993</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60">
         <v>-1</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C15">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>-0.30264311979999992</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61">
         <v>-1</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>-0.37237880781999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>-0.435140927038</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63">
         <v>-1</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>-0.49162683433420007</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64">
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>-0.54246415090078004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65">
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D21">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>-0.58821773581070202</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66">
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D22">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>-0.62939596222963179</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67">
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D23">
+      <c r="C67">
+        <f t="shared" ref="C67:C100" si="1">0.9*C66+0.1*B67</f>
+        <v>-0.66645636600666858</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D24">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>-0.69981072940600175</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69">
         <v>-1</v>
       </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D25">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>-0.72982965646540154</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70">
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D26">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>-0.75684669081886136</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71">
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D27">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>-0.78116202173697524</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72">
         <v>-1</v>
       </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D28">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>-0.8030458195632777</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73">
         <v>-1</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>-0.82274123760694995</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>-1</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>-0.84046711384625494</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>-1</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>-0.85642040246162943</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>-1</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>-0.87077836221546645</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>-1</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>-0.88370052599391979</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>-1</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>-0.89533047339452776</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>-1</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>-0.90579742605507496</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>-1</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>-0.91521768344956744</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>-1</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>-0.92369591510461069</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>-1</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>-0.93132632359414957</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>-1</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>-0.93819369123473462</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>-1</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>-0.94437432211126116</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>-1</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>-0.94993688990013503</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>-1</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>-0.95494320091012153</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>-1</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>-0.9594488808191094</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>-1</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>-0.96350399273719844</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>-1</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>-0.96715359346347862</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>-1</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>-0.9704382341171307</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>-1</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>-0.97339441070541766</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>-1</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>-0.97605496963487592</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>-1</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>-0.97844947267138838</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>-1</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>-0.98060452540424958</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>-1</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>-0.98254407286382461</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>-1</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>-0.98428966557744213</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>-1</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>-0.98586069901969786</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>-1</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>-0.98727462911772812</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>-1</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>-0.98854716620595529</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>-1</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>-0.98969244958535973</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>